--- a/dataclining.xlsx
+++ b/dataclining.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A3E49-AD84-4CB2-9B73-279E16FBB481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C5D76D-458F-4CE9-89F3-CE113152F204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5544" yWindow="2112" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>s.no</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>length</t>
   </si>
 </sst>
 </file>
@@ -360,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,8 +390,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -407,8 +413,11 @@
       <c r="F2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -427,8 +436,11 @@
       <c r="F3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -447,8 +459,11 @@
       <c r="F4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -467,8 +482,11 @@
       <c r="F5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -487,8 +505,11 @@
       <c r="F6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -507,8 +528,11 @@
       <c r="F7">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -527,8 +551,11 @@
       <c r="F8">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -547,8 +574,11 @@
       <c r="F9">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -567,8 +597,11 @@
       <c r="F10">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -587,8 +620,11 @@
       <c r="F11">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -596,7 +632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
